--- a/Kickoff User Story Template.xlsx
+++ b/Kickoff User Story Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop Wala\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dania\Desktop\CS\6th SEMESTER\SPM\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F08341-05C2-420C-8B65-B305A9D9A31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -77,28 +78,19 @@
     <t>Improve hospital workflow and reduce paperwork</t>
   </si>
   <si>
-    <t>Billing Staff</t>
-  </si>
-  <si>
-    <t>Generate and process patient bills automatically</t>
-  </si>
-  <si>
-    <t>Reduce errors and streamline payment collection</t>
-  </si>
-  <si>
     <t>Aliha Qaiser</t>
   </si>
   <si>
-    <t>Manage patient records, appointments, and billing in one system,</t>
+    <t>Healthcare Management System</t>
   </si>
   <si>
-    <t>Healthcare Management System</t>
+    <t>Manage patient records, appointments in a system,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -337,27 +329,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -393,6 +364,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,7 +435,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -773,28 +765,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ409"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="27.59765625" customWidth="1"/>
-    <col min="8" max="8" width="11.09765625" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="27.625" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.59765625" customWidth="1"/>
-    <col min="11" max="11" width="49.59765625" customWidth="1"/>
+    <col min="10" max="10" width="4.625" customWidth="1"/>
+    <col min="11" max="11" width="49.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
@@ -806,21 +798,21 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:52" s="1" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" s="1" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:52" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:52" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -829,32 +821,32 @@
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>22</v>
+      <c r="E3" s="34" t="s">
+        <v>18</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:52" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:52" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="2"/>
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>20</v>
+      <c r="E4" s="33" t="s">
+        <v>17</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="2"/>
@@ -908,9 +900,9 @@
       <c r="AY5" s="1"/>
       <c r="AZ5" s="1"/>
     </row>
-    <row r="6" spans="1:52" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:52" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="19"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="3"/>
       <c r="D6" s="6" t="s">
         <v>1</v>
@@ -970,20 +962,20 @@
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
     </row>
-    <row r="7" spans="1:52" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="20"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="29">
+      <c r="D7" s="22">
         <v>1</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="24" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="3"/>
@@ -1032,20 +1024,20 @@
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
     </row>
-    <row r="8" spans="1:52" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="16"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="32">
+      <c r="D8" s="25">
         <v>2</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="27" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="3"/>
@@ -1094,20 +1086,20 @@
       <c r="AY8" s="1"/>
       <c r="AZ8" s="1"/>
     </row>
-    <row r="9" spans="1:52" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="17"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="23">
+      <c r="D9" s="16">
         <v>3</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>21</v>
+      <c r="F9" s="17" t="s">
+        <v>19</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="18" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="3"/>
@@ -1156,22 +1148,14 @@
       <c r="AY9" s="1"/>
       <c r="AZ9" s="1"/>
     </row>
-    <row r="10" spans="1:52" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="17"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="26">
-        <v>4</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>19</v>
-      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1218,7 +1202,7 @@
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
     </row>
-    <row r="11" spans="1:52" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1272,7 +1256,7 @@
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
     </row>
-    <row r="12" spans="1:52" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1326,7 +1310,7 @@
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
     </row>
-    <row r="13" spans="1:52" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:52" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1380,7 +1364,7 @@
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
     </row>
-    <row r="14" spans="1:52" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:52" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1436,7 +1420,7 @@
       <c r="AY14" s="1"/>
       <c r="AZ14" s="1"/>
     </row>
-    <row r="15" spans="1:52" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1490,7 +1474,7 @@
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
     </row>
-    <row r="16" spans="1:52" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:52" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1544,7 +1528,7 @@
       <c r="AY16" s="1"/>
       <c r="AZ16" s="1"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1598,7 +1582,7 @@
       <c r="AY17" s="1"/>
       <c r="AZ17" s="1"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1652,7 +1636,7 @@
       <c r="AY18" s="1"/>
       <c r="AZ18" s="1"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1706,7 +1690,7 @@
       <c r="AY19" s="1"/>
       <c r="AZ19" s="1"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1762,7 +1746,7 @@
       <c r="AY20" s="1"/>
       <c r="AZ20" s="1"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1816,7 +1800,7 @@
       <c r="AY21" s="1"/>
       <c r="AZ21" s="1"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1872,7 +1856,7 @@
       <c r="AY22" s="1"/>
       <c r="AZ22" s="1"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1926,7 +1910,7 @@
       <c r="AY23" s="1"/>
       <c r="AZ23" s="1"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1980,7 +1964,7 @@
       <c r="AY24" s="1"/>
       <c r="AZ24" s="1"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2034,7 +2018,7 @@
       <c r="AY25" s="1"/>
       <c r="AZ25" s="1"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2088,7 +2072,7 @@
       <c r="AY26" s="1"/>
       <c r="AZ26" s="1"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2142,7 +2126,7 @@
       <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2196,7 +2180,7 @@
       <c r="AY28" s="1"/>
       <c r="AZ28" s="1"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2250,7 +2234,7 @@
       <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2304,7 +2288,7 @@
       <c r="AY30" s="1"/>
       <c r="AZ30" s="1"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2358,7 +2342,7 @@
       <c r="AY31" s="1"/>
       <c r="AZ31" s="1"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2412,7 +2396,7 @@
       <c r="AY32" s="1"/>
       <c r="AZ32" s="1"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2466,7 +2450,7 @@
       <c r="AY33" s="1"/>
       <c r="AZ33" s="1"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2520,7 +2504,7 @@
       <c r="AY34" s="1"/>
       <c r="AZ34" s="1"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2574,7 +2558,7 @@
       <c r="AY35" s="1"/>
       <c r="AZ35" s="1"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2624,7 +2608,7 @@
       <c r="AY36" s="1"/>
       <c r="AZ36" s="1"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2674,7 +2658,7 @@
       <c r="AY37" s="1"/>
       <c r="AZ37" s="1"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2724,7 +2708,7 @@
       <c r="AY38" s="1"/>
       <c r="AZ38" s="1"/>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2774,7 +2758,7 @@
       <c r="AY39" s="1"/>
       <c r="AZ39" s="1"/>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2824,7 +2808,7 @@
       <c r="AY40" s="1"/>
       <c r="AZ40" s="1"/>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2874,7 +2858,7 @@
       <c r="AY41" s="1"/>
       <c r="AZ41" s="1"/>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2924,7 +2908,7 @@
       <c r="AY42" s="1"/>
       <c r="AZ42" s="1"/>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2974,7 +2958,7 @@
       <c r="AY43" s="1"/>
       <c r="AZ43" s="1"/>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -3024,7 +3008,7 @@
       <c r="AY44" s="1"/>
       <c r="AZ44" s="1"/>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -3074,7 +3058,7 @@
       <c r="AY45" s="1"/>
       <c r="AZ45" s="1"/>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -3124,7 +3108,7 @@
       <c r="AY46" s="1"/>
       <c r="AZ46" s="1"/>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -3174,7 +3158,7 @@
       <c r="AY47" s="1"/>
       <c r="AZ47" s="1"/>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -3224,7 +3208,7 @@
       <c r="AY48" s="1"/>
       <c r="AZ48" s="1"/>
     </row>
-    <row r="49" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -3274,7 +3258,7 @@
       <c r="AY49" s="1"/>
       <c r="AZ49" s="1"/>
     </row>
-    <row r="50" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -3324,7 +3308,7 @@
       <c r="AY50" s="1"/>
       <c r="AZ50" s="1"/>
     </row>
-    <row r="51" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -3374,7 +3358,7 @@
       <c r="AY51" s="1"/>
       <c r="AZ51" s="1"/>
     </row>
-    <row r="52" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3424,7 +3408,7 @@
       <c r="AY52" s="1"/>
       <c r="AZ52" s="1"/>
     </row>
-    <row r="53" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3474,7 +3458,7 @@
       <c r="AY53" s="1"/>
       <c r="AZ53" s="1"/>
     </row>
-    <row r="54" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -3526,7 +3510,7 @@
       <c r="AY54" s="1"/>
       <c r="AZ54" s="1"/>
     </row>
-    <row r="55" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -3576,7 +3560,7 @@
       <c r="AY55" s="1"/>
       <c r="AZ55" s="1"/>
     </row>
-    <row r="56" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -3626,7 +3610,7 @@
       <c r="AY56" s="1"/>
       <c r="AZ56" s="1"/>
     </row>
-    <row r="57" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -3676,7 +3660,7 @@
       <c r="AY57" s="1"/>
       <c r="AZ57" s="1"/>
     </row>
-    <row r="58" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3726,7 +3710,7 @@
       <c r="AY58" s="1"/>
       <c r="AZ58" s="1"/>
     </row>
-    <row r="59" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3776,7 +3760,7 @@
       <c r="AY59" s="1"/>
       <c r="AZ59" s="1"/>
     </row>
-    <row r="60" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3826,7 +3810,7 @@
       <c r="AY60" s="1"/>
       <c r="AZ60" s="1"/>
     </row>
-    <row r="61" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3876,7 +3860,7 @@
       <c r="AY61" s="1"/>
       <c r="AZ61" s="1"/>
     </row>
-    <row r="62" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3926,7 +3910,7 @@
       <c r="AY62" s="1"/>
       <c r="AZ62" s="1"/>
     </row>
-    <row r="63" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3976,7 +3960,7 @@
       <c r="AY63" s="1"/>
       <c r="AZ63" s="1"/>
     </row>
-    <row r="64" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -4026,7 +4010,7 @@
       <c r="AY64" s="1"/>
       <c r="AZ64" s="1"/>
     </row>
-    <row r="65" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -4076,7 +4060,7 @@
       <c r="AY65" s="1"/>
       <c r="AZ65" s="1"/>
     </row>
-    <row r="66" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -4126,7 +4110,7 @@
       <c r="AY66" s="1"/>
       <c r="AZ66" s="1"/>
     </row>
-    <row r="67" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -4176,7 +4160,7 @@
       <c r="AY67" s="1"/>
       <c r="AZ67" s="1"/>
     </row>
-    <row r="68" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -4226,7 +4210,7 @@
       <c r="AY68" s="1"/>
       <c r="AZ68" s="1"/>
     </row>
-    <row r="69" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -4276,7 +4260,7 @@
       <c r="AY69" s="1"/>
       <c r="AZ69" s="1"/>
     </row>
-    <row r="70" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -4326,7 +4310,7 @@
       <c r="AY70" s="1"/>
       <c r="AZ70" s="1"/>
     </row>
-    <row r="71" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -4376,7 +4360,7 @@
       <c r="AY71" s="1"/>
       <c r="AZ71" s="1"/>
     </row>
-    <row r="72" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -4426,7 +4410,7 @@
       <c r="AY72" s="1"/>
       <c r="AZ72" s="1"/>
     </row>
-    <row r="73" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -4476,7 +4460,7 @@
       <c r="AY73" s="1"/>
       <c r="AZ73" s="1"/>
     </row>
-    <row r="74" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -4526,7 +4510,7 @@
       <c r="AY74" s="1"/>
       <c r="AZ74" s="1"/>
     </row>
-    <row r="75" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -4576,7 +4560,7 @@
       <c r="AY75" s="1"/>
       <c r="AZ75" s="1"/>
     </row>
-    <row r="76" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -4626,7 +4610,7 @@
       <c r="AY76" s="1"/>
       <c r="AZ76" s="1"/>
     </row>
-    <row r="77" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -4676,7 +4660,7 @@
       <c r="AY77" s="1"/>
       <c r="AZ77" s="1"/>
     </row>
-    <row r="78" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -4726,7 +4710,7 @@
       <c r="AY78" s="1"/>
       <c r="AZ78" s="1"/>
     </row>
-    <row r="79" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -4776,7 +4760,7 @@
       <c r="AY79" s="1"/>
       <c r="AZ79" s="1"/>
     </row>
-    <row r="80" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -4826,7 +4810,7 @@
       <c r="AY80" s="1"/>
       <c r="AZ80" s="1"/>
     </row>
-    <row r="81" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -4876,7 +4860,7 @@
       <c r="AY81" s="1"/>
       <c r="AZ81" s="1"/>
     </row>
-    <row r="82" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -4926,7 +4910,7 @@
       <c r="AY82" s="1"/>
       <c r="AZ82" s="1"/>
     </row>
-    <row r="83" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -4976,7 +4960,7 @@
       <c r="AY83" s="1"/>
       <c r="AZ83" s="1"/>
     </row>
-    <row r="84" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -5026,7 +5010,7 @@
       <c r="AY84" s="1"/>
       <c r="AZ84" s="1"/>
     </row>
-    <row r="85" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -5076,7 +5060,7 @@
       <c r="AY85" s="1"/>
       <c r="AZ85" s="1"/>
     </row>
-    <row r="86" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -5126,7 +5110,7 @@
       <c r="AY86" s="1"/>
       <c r="AZ86" s="1"/>
     </row>
-    <row r="87" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -5176,7 +5160,7 @@
       <c r="AY87" s="1"/>
       <c r="AZ87" s="1"/>
     </row>
-    <row r="88" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -5226,7 +5210,7 @@
       <c r="AY88" s="1"/>
       <c r="AZ88" s="1"/>
     </row>
-    <row r="89" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -5276,7 +5260,7 @@
       <c r="AY89" s="1"/>
       <c r="AZ89" s="1"/>
     </row>
-    <row r="90" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -5326,7 +5310,7 @@
       <c r="AY90" s="1"/>
       <c r="AZ90" s="1"/>
     </row>
-    <row r="91" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -5376,7 +5360,7 @@
       <c r="AY91" s="1"/>
       <c r="AZ91" s="1"/>
     </row>
-    <row r="92" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -5426,7 +5410,7 @@
       <c r="AY92" s="1"/>
       <c r="AZ92" s="1"/>
     </row>
-    <row r="93" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -5476,7 +5460,7 @@
       <c r="AY93" s="1"/>
       <c r="AZ93" s="1"/>
     </row>
-    <row r="94" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -5526,7 +5510,7 @@
       <c r="AY94" s="1"/>
       <c r="AZ94" s="1"/>
     </row>
-    <row r="95" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -5576,7 +5560,7 @@
       <c r="AY95" s="1"/>
       <c r="AZ95" s="1"/>
     </row>
-    <row r="96" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -5626,7 +5610,7 @@
       <c r="AY96" s="1"/>
       <c r="AZ96" s="1"/>
     </row>
-    <row r="97" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -5676,7 +5660,7 @@
       <c r="AY97" s="1"/>
       <c r="AZ97" s="1"/>
     </row>
-    <row r="98" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -5726,7 +5710,7 @@
       <c r="AY98" s="1"/>
       <c r="AZ98" s="1"/>
     </row>
-    <row r="99" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -5776,7 +5760,7 @@
       <c r="AY99" s="1"/>
       <c r="AZ99" s="1"/>
     </row>
-    <row r="100" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -5826,7 +5810,7 @@
       <c r="AY100" s="1"/>
       <c r="AZ100" s="1"/>
     </row>
-    <row r="101" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -5876,7 +5860,7 @@
       <c r="AY101" s="1"/>
       <c r="AZ101" s="1"/>
     </row>
-    <row r="102" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -5926,7 +5910,7 @@
       <c r="AY102" s="1"/>
       <c r="AZ102" s="1"/>
     </row>
-    <row r="103" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -5976,7 +5960,7 @@
       <c r="AY103" s="1"/>
       <c r="AZ103" s="1"/>
     </row>
-    <row r="104" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -6026,7 +6010,7 @@
       <c r="AY104" s="1"/>
       <c r="AZ104" s="1"/>
     </row>
-    <row r="105" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -6076,7 +6060,7 @@
       <c r="AY105" s="1"/>
       <c r="AZ105" s="1"/>
     </row>
-    <row r="106" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -6126,7 +6110,7 @@
       <c r="AY106" s="1"/>
       <c r="AZ106" s="1"/>
     </row>
-    <row r="107" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -6176,7 +6160,7 @@
       <c r="AY107" s="1"/>
       <c r="AZ107" s="1"/>
     </row>
-    <row r="108" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -6226,7 +6210,7 @@
       <c r="AY108" s="1"/>
       <c r="AZ108" s="1"/>
     </row>
-    <row r="109" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -6276,7 +6260,7 @@
       <c r="AY109" s="1"/>
       <c r="AZ109" s="1"/>
     </row>
-    <row r="110" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -6326,7 +6310,7 @@
       <c r="AY110" s="1"/>
       <c r="AZ110" s="1"/>
     </row>
-    <row r="111" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -6376,7 +6360,7 @@
       <c r="AY111" s="1"/>
       <c r="AZ111" s="1"/>
     </row>
-    <row r="112" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -6426,7 +6410,7 @@
       <c r="AY112" s="1"/>
       <c r="AZ112" s="1"/>
     </row>
-    <row r="113" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -6476,7 +6460,7 @@
       <c r="AY113" s="1"/>
       <c r="AZ113" s="1"/>
     </row>
-    <row r="114" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -6526,7 +6510,7 @@
       <c r="AY114" s="1"/>
       <c r="AZ114" s="1"/>
     </row>
-    <row r="115" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -6576,7 +6560,7 @@
       <c r="AY115" s="1"/>
       <c r="AZ115" s="1"/>
     </row>
-    <row r="116" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -6626,7 +6610,7 @@
       <c r="AY116" s="1"/>
       <c r="AZ116" s="1"/>
     </row>
-    <row r="117" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -6676,7 +6660,7 @@
       <c r="AY117" s="1"/>
       <c r="AZ117" s="1"/>
     </row>
-    <row r="118" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -6726,7 +6710,7 @@
       <c r="AY118" s="1"/>
       <c r="AZ118" s="1"/>
     </row>
-    <row r="119" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -6776,7 +6760,7 @@
       <c r="AY119" s="1"/>
       <c r="AZ119" s="1"/>
     </row>
-    <row r="120" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -6826,7 +6810,7 @@
       <c r="AY120" s="1"/>
       <c r="AZ120" s="1"/>
     </row>
-    <row r="121" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -6876,7 +6860,7 @@
       <c r="AY121" s="1"/>
       <c r="AZ121" s="1"/>
     </row>
-    <row r="122" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -6926,7 +6910,7 @@
       <c r="AY122" s="1"/>
       <c r="AZ122" s="1"/>
     </row>
-    <row r="123" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -6976,7 +6960,7 @@
       <c r="AY123" s="1"/>
       <c r="AZ123" s="1"/>
     </row>
-    <row r="124" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -7026,7 +7010,7 @@
       <c r="AY124" s="1"/>
       <c r="AZ124" s="1"/>
     </row>
-    <row r="125" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -7076,7 +7060,7 @@
       <c r="AY125" s="1"/>
       <c r="AZ125" s="1"/>
     </row>
-    <row r="126" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -7126,7 +7110,7 @@
       <c r="AY126" s="1"/>
       <c r="AZ126" s="1"/>
     </row>
-    <row r="127" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -7176,7 +7160,7 @@
       <c r="AY127" s="1"/>
       <c r="AZ127" s="1"/>
     </row>
-    <row r="128" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -7226,7 +7210,7 @@
       <c r="AY128" s="1"/>
       <c r="AZ128" s="1"/>
     </row>
-    <row r="129" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -7276,7 +7260,7 @@
       <c r="AY129" s="1"/>
       <c r="AZ129" s="1"/>
     </row>
-    <row r="130" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -7326,7 +7310,7 @@
       <c r="AY130" s="1"/>
       <c r="AZ130" s="1"/>
     </row>
-    <row r="131" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -7376,7 +7360,7 @@
       <c r="AY131" s="1"/>
       <c r="AZ131" s="1"/>
     </row>
-    <row r="132" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -7426,7 +7410,7 @@
       <c r="AY132" s="1"/>
       <c r="AZ132" s="1"/>
     </row>
-    <row r="133" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -7476,7 +7460,7 @@
       <c r="AY133" s="1"/>
       <c r="AZ133" s="1"/>
     </row>
-    <row r="134" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -7526,7 +7510,7 @@
       <c r="AY134" s="1"/>
       <c r="AZ134" s="1"/>
     </row>
-    <row r="135" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -7576,7 +7560,7 @@
       <c r="AY135" s="1"/>
       <c r="AZ135" s="1"/>
     </row>
-    <row r="136" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -7626,7 +7610,7 @@
       <c r="AY136" s="1"/>
       <c r="AZ136" s="1"/>
     </row>
-    <row r="137" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -7676,7 +7660,7 @@
       <c r="AY137" s="1"/>
       <c r="AZ137" s="1"/>
     </row>
-    <row r="138" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -7726,7 +7710,7 @@
       <c r="AY138" s="1"/>
       <c r="AZ138" s="1"/>
     </row>
-    <row r="139" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -7776,7 +7760,7 @@
       <c r="AY139" s="1"/>
       <c r="AZ139" s="1"/>
     </row>
-    <row r="140" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -7826,7 +7810,7 @@
       <c r="AY140" s="1"/>
       <c r="AZ140" s="1"/>
     </row>
-    <row r="141" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -7876,7 +7860,7 @@
       <c r="AY141" s="1"/>
       <c r="AZ141" s="1"/>
     </row>
-    <row r="142" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -7926,7 +7910,7 @@
       <c r="AY142" s="1"/>
       <c r="AZ142" s="1"/>
     </row>
-    <row r="143" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -7976,7 +7960,7 @@
       <c r="AY143" s="1"/>
       <c r="AZ143" s="1"/>
     </row>
-    <row r="144" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -8026,7 +8010,7 @@
       <c r="AY144" s="1"/>
       <c r="AZ144" s="1"/>
     </row>
-    <row r="145" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -8076,7 +8060,7 @@
       <c r="AY145" s="1"/>
       <c r="AZ145" s="1"/>
     </row>
-    <row r="146" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -8126,7 +8110,7 @@
       <c r="AY146" s="1"/>
       <c r="AZ146" s="1"/>
     </row>
-    <row r="147" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -8176,7 +8160,7 @@
       <c r="AY147" s="1"/>
       <c r="AZ147" s="1"/>
     </row>
-    <row r="148" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -8226,7 +8210,7 @@
       <c r="AY148" s="1"/>
       <c r="AZ148" s="1"/>
     </row>
-    <row r="149" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -8276,7 +8260,7 @@
       <c r="AY149" s="1"/>
       <c r="AZ149" s="1"/>
     </row>
-    <row r="150" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
@@ -8326,7 +8310,7 @@
       <c r="AY150" s="1"/>
       <c r="AZ150" s="1"/>
     </row>
-    <row r="151" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -8376,7 +8360,7 @@
       <c r="AY151" s="1"/>
       <c r="AZ151" s="1"/>
     </row>
-    <row r="152" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
@@ -8426,7 +8410,7 @@
       <c r="AY152" s="1"/>
       <c r="AZ152" s="1"/>
     </row>
-    <row r="153" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -8476,7 +8460,7 @@
       <c r="AY153" s="1"/>
       <c r="AZ153" s="1"/>
     </row>
-    <row r="154" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -8526,7 +8510,7 @@
       <c r="AY154" s="1"/>
       <c r="AZ154" s="1"/>
     </row>
-    <row r="155" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -8576,7 +8560,7 @@
       <c r="AY155" s="1"/>
       <c r="AZ155" s="1"/>
     </row>
-    <row r="156" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -8626,7 +8610,7 @@
       <c r="AY156" s="1"/>
       <c r="AZ156" s="1"/>
     </row>
-    <row r="157" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
@@ -8676,7 +8660,7 @@
       <c r="AY157" s="1"/>
       <c r="AZ157" s="1"/>
     </row>
-    <row r="158" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
@@ -8726,7 +8710,7 @@
       <c r="AY158" s="1"/>
       <c r="AZ158" s="1"/>
     </row>
-    <row r="159" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -8776,7 +8760,7 @@
       <c r="AY159" s="1"/>
       <c r="AZ159" s="1"/>
     </row>
-    <row r="160" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -8826,7 +8810,7 @@
       <c r="AY160" s="1"/>
       <c r="AZ160" s="1"/>
     </row>
-    <row r="161" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -8876,7 +8860,7 @@
       <c r="AY161" s="1"/>
       <c r="AZ161" s="1"/>
     </row>
-    <row r="162" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -8926,7 +8910,7 @@
       <c r="AY162" s="1"/>
       <c r="AZ162" s="1"/>
     </row>
-    <row r="163" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -8976,7 +8960,7 @@
       <c r="AY163" s="1"/>
       <c r="AZ163" s="1"/>
     </row>
-    <row r="164" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -9026,7 +9010,7 @@
       <c r="AY164" s="1"/>
       <c r="AZ164" s="1"/>
     </row>
-    <row r="165" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -9076,7 +9060,7 @@
       <c r="AY165" s="1"/>
       <c r="AZ165" s="1"/>
     </row>
-    <row r="166" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -9126,7 +9110,7 @@
       <c r="AY166" s="1"/>
       <c r="AZ166" s="1"/>
     </row>
-    <row r="167" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -9176,7 +9160,7 @@
       <c r="AY167" s="1"/>
       <c r="AZ167" s="1"/>
     </row>
-    <row r="168" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -9226,7 +9210,7 @@
       <c r="AY168" s="1"/>
       <c r="AZ168" s="1"/>
     </row>
-    <row r="169" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -9276,7 +9260,7 @@
       <c r="AY169" s="1"/>
       <c r="AZ169" s="1"/>
     </row>
-    <row r="170" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
@@ -9326,7 +9310,7 @@
       <c r="AY170" s="1"/>
       <c r="AZ170" s="1"/>
     </row>
-    <row r="171" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
@@ -9376,7 +9360,7 @@
       <c r="AY171" s="1"/>
       <c r="AZ171" s="1"/>
     </row>
-    <row r="172" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
@@ -9426,7 +9410,7 @@
       <c r="AY172" s="1"/>
       <c r="AZ172" s="1"/>
     </row>
-    <row r="173" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -9476,7 +9460,7 @@
       <c r="AY173" s="1"/>
       <c r="AZ173" s="1"/>
     </row>
-    <row r="174" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="174" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
@@ -9526,7 +9510,7 @@
       <c r="AY174" s="1"/>
       <c r="AZ174" s="1"/>
     </row>
-    <row r="175" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -9576,7 +9560,7 @@
       <c r="AY175" s="1"/>
       <c r="AZ175" s="1"/>
     </row>
-    <row r="176" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
@@ -9626,7 +9610,7 @@
       <c r="AY176" s="1"/>
       <c r="AZ176" s="1"/>
     </row>
-    <row r="177" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
@@ -9676,7 +9660,7 @@
       <c r="AY177" s="1"/>
       <c r="AZ177" s="1"/>
     </row>
-    <row r="178" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
@@ -9726,7 +9710,7 @@
       <c r="AY178" s="1"/>
       <c r="AZ178" s="1"/>
     </row>
-    <row r="179" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
@@ -9776,7 +9760,7 @@
       <c r="AY179" s="1"/>
       <c r="AZ179" s="1"/>
     </row>
-    <row r="180" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="180" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
@@ -9826,7 +9810,7 @@
       <c r="AY180" s="1"/>
       <c r="AZ180" s="1"/>
     </row>
-    <row r="181" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
@@ -9876,7 +9860,7 @@
       <c r="AY181" s="1"/>
       <c r="AZ181" s="1"/>
     </row>
-    <row r="182" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
@@ -9926,7 +9910,7 @@
       <c r="AY182" s="1"/>
       <c r="AZ182" s="1"/>
     </row>
-    <row r="183" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
@@ -9976,7 +9960,7 @@
       <c r="AY183" s="1"/>
       <c r="AZ183" s="1"/>
     </row>
-    <row r="184" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
@@ -10026,7 +10010,7 @@
       <c r="AY184" s="1"/>
       <c r="AZ184" s="1"/>
     </row>
-    <row r="185" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
@@ -10076,7 +10060,7 @@
       <c r="AY185" s="1"/>
       <c r="AZ185" s="1"/>
     </row>
-    <row r="186" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
@@ -10126,7 +10110,7 @@
       <c r="AY186" s="1"/>
       <c r="AZ186" s="1"/>
     </row>
-    <row r="187" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
@@ -10176,7 +10160,7 @@
       <c r="AY187" s="1"/>
       <c r="AZ187" s="1"/>
     </row>
-    <row r="188" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
@@ -10226,7 +10210,7 @@
       <c r="AY188" s="1"/>
       <c r="AZ188" s="1"/>
     </row>
-    <row r="189" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
@@ -10276,7 +10260,7 @@
       <c r="AY189" s="1"/>
       <c r="AZ189" s="1"/>
     </row>
-    <row r="190" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
@@ -10326,7 +10310,7 @@
       <c r="AY190" s="1"/>
       <c r="AZ190" s="1"/>
     </row>
-    <row r="191" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
@@ -10376,7 +10360,7 @@
       <c r="AY191" s="1"/>
       <c r="AZ191" s="1"/>
     </row>
-    <row r="192" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
@@ -10426,7 +10410,7 @@
       <c r="AY192" s="1"/>
       <c r="AZ192" s="1"/>
     </row>
-    <row r="193" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
@@ -10476,7 +10460,7 @@
       <c r="AY193" s="1"/>
       <c r="AZ193" s="1"/>
     </row>
-    <row r="194" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
@@ -10526,7 +10510,7 @@
       <c r="AY194" s="1"/>
       <c r="AZ194" s="1"/>
     </row>
-    <row r="195" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="195" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
@@ -10576,7 +10560,7 @@
       <c r="AY195" s="1"/>
       <c r="AZ195" s="1"/>
     </row>
-    <row r="196" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
@@ -10626,7 +10610,7 @@
       <c r="AY196" s="1"/>
       <c r="AZ196" s="1"/>
     </row>
-    <row r="197" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="197" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
@@ -10676,7 +10660,7 @@
       <c r="AY197" s="1"/>
       <c r="AZ197" s="1"/>
     </row>
-    <row r="198" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="198" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
@@ -10726,7 +10710,7 @@
       <c r="AY198" s="1"/>
       <c r="AZ198" s="1"/>
     </row>
-    <row r="199" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
@@ -10776,7 +10760,7 @@
       <c r="AY199" s="1"/>
       <c r="AZ199" s="1"/>
     </row>
-    <row r="200" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
@@ -10826,7 +10810,7 @@
       <c r="AY200" s="1"/>
       <c r="AZ200" s="1"/>
     </row>
-    <row r="201" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="201" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
@@ -10876,7 +10860,7 @@
       <c r="AY201" s="1"/>
       <c r="AZ201" s="1"/>
     </row>
-    <row r="202" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="202" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
@@ -10926,7 +10910,7 @@
       <c r="AY202" s="1"/>
       <c r="AZ202" s="1"/>
     </row>
-    <row r="203" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
@@ -10976,7 +10960,7 @@
       <c r="AY203" s="1"/>
       <c r="AZ203" s="1"/>
     </row>
-    <row r="204" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
@@ -11026,7 +11010,7 @@
       <c r="AY204" s="1"/>
       <c r="AZ204" s="1"/>
     </row>
-    <row r="205" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="205" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
@@ -11076,7 +11060,7 @@
       <c r="AY205" s="1"/>
       <c r="AZ205" s="1"/>
     </row>
-    <row r="206" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="206" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
@@ -11126,7 +11110,7 @@
       <c r="AY206" s="1"/>
       <c r="AZ206" s="1"/>
     </row>
-    <row r="207" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
@@ -11176,7 +11160,7 @@
       <c r="AY207" s="1"/>
       <c r="AZ207" s="1"/>
     </row>
-    <row r="208" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
@@ -11226,7 +11210,7 @@
       <c r="AY208" s="1"/>
       <c r="AZ208" s="1"/>
     </row>
-    <row r="209" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
@@ -11276,7 +11260,7 @@
       <c r="AY209" s="1"/>
       <c r="AZ209" s="1"/>
     </row>
-    <row r="210" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="210" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
@@ -11326,7 +11310,7 @@
       <c r="AY210" s="1"/>
       <c r="AZ210" s="1"/>
     </row>
-    <row r="211" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
@@ -11376,7 +11360,7 @@
       <c r="AY211" s="1"/>
       <c r="AZ211" s="1"/>
     </row>
-    <row r="212" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
@@ -11426,7 +11410,7 @@
       <c r="AY212" s="1"/>
       <c r="AZ212" s="1"/>
     </row>
-    <row r="213" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="213" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
@@ -11476,7 +11460,7 @@
       <c r="AY213" s="1"/>
       <c r="AZ213" s="1"/>
     </row>
-    <row r="214" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="214" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
@@ -11526,7 +11510,7 @@
       <c r="AY214" s="1"/>
       <c r="AZ214" s="1"/>
     </row>
-    <row r="215" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="215" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
@@ -11576,7 +11560,7 @@
       <c r="AY215" s="1"/>
       <c r="AZ215" s="1"/>
     </row>
-    <row r="216" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
@@ -11626,7 +11610,7 @@
       <c r="AY216" s="1"/>
       <c r="AZ216" s="1"/>
     </row>
-    <row r="217" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="217" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
@@ -11676,7 +11660,7 @@
       <c r="AY217" s="1"/>
       <c r="AZ217" s="1"/>
     </row>
-    <row r="218" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="218" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
@@ -11726,7 +11710,7 @@
       <c r="AY218" s="1"/>
       <c r="AZ218" s="1"/>
     </row>
-    <row r="219" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="219" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
@@ -11776,7 +11760,7 @@
       <c r="AY219" s="1"/>
       <c r="AZ219" s="1"/>
     </row>
-    <row r="220" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="220" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
@@ -11826,7 +11810,7 @@
       <c r="AY220" s="1"/>
       <c r="AZ220" s="1"/>
     </row>
-    <row r="221" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="221" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
@@ -11876,7 +11860,7 @@
       <c r="AY221" s="1"/>
       <c r="AZ221" s="1"/>
     </row>
-    <row r="222" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="222" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
@@ -11926,7 +11910,7 @@
       <c r="AY222" s="1"/>
       <c r="AZ222" s="1"/>
     </row>
-    <row r="223" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="223" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
@@ -11976,7 +11960,7 @@
       <c r="AY223" s="1"/>
       <c r="AZ223" s="1"/>
     </row>
-    <row r="224" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="224" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
@@ -12026,7 +12010,7 @@
       <c r="AY224" s="1"/>
       <c r="AZ224" s="1"/>
     </row>
-    <row r="225" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="225" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
@@ -12076,7 +12060,7 @@
       <c r="AY225" s="1"/>
       <c r="AZ225" s="1"/>
     </row>
-    <row r="226" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="226" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
@@ -12126,7 +12110,7 @@
       <c r="AY226" s="1"/>
       <c r="AZ226" s="1"/>
     </row>
-    <row r="227" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="227" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
@@ -12176,7 +12160,7 @@
       <c r="AY227" s="1"/>
       <c r="AZ227" s="1"/>
     </row>
-    <row r="228" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="228" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
@@ -12226,7 +12210,7 @@
       <c r="AY228" s="1"/>
       <c r="AZ228" s="1"/>
     </row>
-    <row r="229" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="229" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
@@ -12276,7 +12260,7 @@
       <c r="AY229" s="1"/>
       <c r="AZ229" s="1"/>
     </row>
-    <row r="230" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="230" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
@@ -12326,7 +12310,7 @@
       <c r="AY230" s="1"/>
       <c r="AZ230" s="1"/>
     </row>
-    <row r="231" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="231" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
@@ -12376,7 +12360,7 @@
       <c r="AY231" s="1"/>
       <c r="AZ231" s="1"/>
     </row>
-    <row r="232" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="232" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
@@ -12426,7 +12410,7 @@
       <c r="AY232" s="1"/>
       <c r="AZ232" s="1"/>
     </row>
-    <row r="233" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="233" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
@@ -12476,7 +12460,7 @@
       <c r="AY233" s="1"/>
       <c r="AZ233" s="1"/>
     </row>
-    <row r="234" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
@@ -12526,7 +12510,7 @@
       <c r="AY234" s="1"/>
       <c r="AZ234" s="1"/>
     </row>
-    <row r="235" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="235" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
@@ -12576,7 +12560,7 @@
       <c r="AY235" s="1"/>
       <c r="AZ235" s="1"/>
     </row>
-    <row r="236" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
@@ -12626,7 +12610,7 @@
       <c r="AY236" s="1"/>
       <c r="AZ236" s="1"/>
     </row>
-    <row r="237" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="237" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
@@ -12676,7 +12660,7 @@
       <c r="AY237" s="1"/>
       <c r="AZ237" s="1"/>
     </row>
-    <row r="238" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="238" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
@@ -12726,7 +12710,7 @@
       <c r="AY238" s="1"/>
       <c r="AZ238" s="1"/>
     </row>
-    <row r="239" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="239" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
@@ -12776,7 +12760,7 @@
       <c r="AY239" s="1"/>
       <c r="AZ239" s="1"/>
     </row>
-    <row r="240" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="240" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
@@ -12826,7 +12810,7 @@
       <c r="AY240" s="1"/>
       <c r="AZ240" s="1"/>
     </row>
-    <row r="241" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="241" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
@@ -12876,7 +12860,7 @@
       <c r="AY241" s="1"/>
       <c r="AZ241" s="1"/>
     </row>
-    <row r="242" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="242" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
@@ -12926,7 +12910,7 @@
       <c r="AY242" s="1"/>
       <c r="AZ242" s="1"/>
     </row>
-    <row r="243" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="243" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
@@ -12976,7 +12960,7 @@
       <c r="AY243" s="1"/>
       <c r="AZ243" s="1"/>
     </row>
-    <row r="244" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="244" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
@@ -13026,7 +13010,7 @@
       <c r="AY244" s="1"/>
       <c r="AZ244" s="1"/>
     </row>
-    <row r="245" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="245" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
@@ -13076,7 +13060,7 @@
       <c r="AY245" s="1"/>
       <c r="AZ245" s="1"/>
     </row>
-    <row r="246" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="246" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
@@ -13126,7 +13110,7 @@
       <c r="AY246" s="1"/>
       <c r="AZ246" s="1"/>
     </row>
-    <row r="247" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="247" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
@@ -13176,7 +13160,7 @@
       <c r="AY247" s="1"/>
       <c r="AZ247" s="1"/>
     </row>
-    <row r="248" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="248" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
@@ -13226,7 +13210,7 @@
       <c r="AY248" s="1"/>
       <c r="AZ248" s="1"/>
     </row>
-    <row r="249" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="249" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
@@ -13276,7 +13260,7 @@
       <c r="AY249" s="1"/>
       <c r="AZ249" s="1"/>
     </row>
-    <row r="250" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="250" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
@@ -13326,7 +13310,7 @@
       <c r="AY250" s="1"/>
       <c r="AZ250" s="1"/>
     </row>
-    <row r="251" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="251" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
@@ -13376,7 +13360,7 @@
       <c r="AY251" s="1"/>
       <c r="AZ251" s="1"/>
     </row>
-    <row r="252" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="252" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
@@ -13426,7 +13410,7 @@
       <c r="AY252" s="1"/>
       <c r="AZ252" s="1"/>
     </row>
-    <row r="253" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="253" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
@@ -13476,7 +13460,7 @@
       <c r="AY253" s="1"/>
       <c r="AZ253" s="1"/>
     </row>
-    <row r="254" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="254" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
@@ -13526,7 +13510,7 @@
       <c r="AY254" s="1"/>
       <c r="AZ254" s="1"/>
     </row>
-    <row r="255" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="255" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
@@ -13576,7 +13560,7 @@
       <c r="AY255" s="1"/>
       <c r="AZ255" s="1"/>
     </row>
-    <row r="256" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="256" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
@@ -13626,7 +13610,7 @@
       <c r="AY256" s="1"/>
       <c r="AZ256" s="1"/>
     </row>
-    <row r="257" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="257" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
@@ -13676,7 +13660,7 @@
       <c r="AY257" s="1"/>
       <c r="AZ257" s="1"/>
     </row>
-    <row r="258" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="258" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
@@ -13726,7 +13710,7 @@
       <c r="AY258" s="1"/>
       <c r="AZ258" s="1"/>
     </row>
-    <row r="259" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="259" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
@@ -13776,7 +13760,7 @@
       <c r="AY259" s="1"/>
       <c r="AZ259" s="1"/>
     </row>
-    <row r="260" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="260" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
@@ -13826,7 +13810,7 @@
       <c r="AY260" s="1"/>
       <c r="AZ260" s="1"/>
     </row>
-    <row r="261" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="261" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
@@ -13876,7 +13860,7 @@
       <c r="AY261" s="1"/>
       <c r="AZ261" s="1"/>
     </row>
-    <row r="262" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="262" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
@@ -13926,7 +13910,7 @@
       <c r="AY262" s="1"/>
       <c r="AZ262" s="1"/>
     </row>
-    <row r="263" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="263" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
@@ -13976,7 +13960,7 @@
       <c r="AY263" s="1"/>
       <c r="AZ263" s="1"/>
     </row>
-    <row r="264" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="264" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
@@ -14026,7 +14010,7 @@
       <c r="AY264" s="1"/>
       <c r="AZ264" s="1"/>
     </row>
-    <row r="265" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="265" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
@@ -14076,7 +14060,7 @@
       <c r="AY265" s="1"/>
       <c r="AZ265" s="1"/>
     </row>
-    <row r="266" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="266" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
@@ -14126,7 +14110,7 @@
       <c r="AY266" s="1"/>
       <c r="AZ266" s="1"/>
     </row>
-    <row r="267" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="267" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
@@ -14176,7 +14160,7 @@
       <c r="AY267" s="1"/>
       <c r="AZ267" s="1"/>
     </row>
-    <row r="268" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="268" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
@@ -14226,7 +14210,7 @@
       <c r="AY268" s="1"/>
       <c r="AZ268" s="1"/>
     </row>
-    <row r="269" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="269" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
@@ -14276,7 +14260,7 @@
       <c r="AY269" s="1"/>
       <c r="AZ269" s="1"/>
     </row>
-    <row r="270" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="270" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
@@ -14326,7 +14310,7 @@
       <c r="AY270" s="1"/>
       <c r="AZ270" s="1"/>
     </row>
-    <row r="271" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="271" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
@@ -14376,7 +14360,7 @@
       <c r="AY271" s="1"/>
       <c r="AZ271" s="1"/>
     </row>
-    <row r="272" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="272" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
@@ -14426,7 +14410,7 @@
       <c r="AY272" s="1"/>
       <c r="AZ272" s="1"/>
     </row>
-    <row r="273" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="273" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
@@ -14476,7 +14460,7 @@
       <c r="AY273" s="1"/>
       <c r="AZ273" s="1"/>
     </row>
-    <row r="274" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="274" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
@@ -14526,7 +14510,7 @@
       <c r="AY274" s="1"/>
       <c r="AZ274" s="1"/>
     </row>
-    <row r="275" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
@@ -14576,7 +14560,7 @@
       <c r="AY275" s="1"/>
       <c r="AZ275" s="1"/>
     </row>
-    <row r="276" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
@@ -14626,7 +14610,7 @@
       <c r="AY276" s="1"/>
       <c r="AZ276" s="1"/>
     </row>
-    <row r="277" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="277" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
@@ -14676,7 +14660,7 @@
       <c r="AY277" s="1"/>
       <c r="AZ277" s="1"/>
     </row>
-    <row r="278" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="278" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
@@ -14726,7 +14710,7 @@
       <c r="AY278" s="1"/>
       <c r="AZ278" s="1"/>
     </row>
-    <row r="279" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="279" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
@@ -14776,7 +14760,7 @@
       <c r="AY279" s="1"/>
       <c r="AZ279" s="1"/>
     </row>
-    <row r="280" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
@@ -14826,7 +14810,7 @@
       <c r="AY280" s="1"/>
       <c r="AZ280" s="1"/>
     </row>
-    <row r="281" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
@@ -14876,7 +14860,7 @@
       <c r="AY281" s="1"/>
       <c r="AZ281" s="1"/>
     </row>
-    <row r="282" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="282" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
@@ -14926,7 +14910,7 @@
       <c r="AY282" s="1"/>
       <c r="AZ282" s="1"/>
     </row>
-    <row r="283" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
@@ -14976,7 +14960,7 @@
       <c r="AY283" s="1"/>
       <c r="AZ283" s="1"/>
     </row>
-    <row r="284" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="284" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
@@ -15026,7 +15010,7 @@
       <c r="AY284" s="1"/>
       <c r="AZ284" s="1"/>
     </row>
-    <row r="285" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="285" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
@@ -15076,7 +15060,7 @@
       <c r="AY285" s="1"/>
       <c r="AZ285" s="1"/>
     </row>
-    <row r="286" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="286" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
@@ -15126,7 +15110,7 @@
       <c r="AY286" s="1"/>
       <c r="AZ286" s="1"/>
     </row>
-    <row r="287" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="287" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
@@ -15176,7 +15160,7 @@
       <c r="AY287" s="1"/>
       <c r="AZ287" s="1"/>
     </row>
-    <row r="288" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="288" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
@@ -15226,7 +15210,7 @@
       <c r="AY288" s="1"/>
       <c r="AZ288" s="1"/>
     </row>
-    <row r="289" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
@@ -15276,7 +15260,7 @@
       <c r="AY289" s="1"/>
       <c r="AZ289" s="1"/>
     </row>
-    <row r="290" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="290" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
@@ -15326,7 +15310,7 @@
       <c r="AY290" s="1"/>
       <c r="AZ290" s="1"/>
     </row>
-    <row r="291" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="291" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
@@ -15376,7 +15360,7 @@
       <c r="AY291" s="1"/>
       <c r="AZ291" s="1"/>
     </row>
-    <row r="292" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="292" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
@@ -15426,7 +15410,7 @@
       <c r="AY292" s="1"/>
       <c r="AZ292" s="1"/>
     </row>
-    <row r="293" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="293" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
@@ -15476,7 +15460,7 @@
       <c r="AY293" s="1"/>
       <c r="AZ293" s="1"/>
     </row>
-    <row r="294" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="294" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
@@ -15526,7 +15510,7 @@
       <c r="AY294" s="1"/>
       <c r="AZ294" s="1"/>
     </row>
-    <row r="295" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="295" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
@@ -15576,7 +15560,7 @@
       <c r="AY295" s="1"/>
       <c r="AZ295" s="1"/>
     </row>
-    <row r="296" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="296" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
@@ -15626,7 +15610,7 @@
       <c r="AY296" s="1"/>
       <c r="AZ296" s="1"/>
     </row>
-    <row r="297" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="297" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
@@ -15676,7 +15660,7 @@
       <c r="AY297" s="1"/>
       <c r="AZ297" s="1"/>
     </row>
-    <row r="298" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="298" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
@@ -15726,7 +15710,7 @@
       <c r="AY298" s="1"/>
       <c r="AZ298" s="1"/>
     </row>
-    <row r="299" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="299" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
@@ -15776,7 +15760,7 @@
       <c r="AY299" s="1"/>
       <c r="AZ299" s="1"/>
     </row>
-    <row r="300" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="300" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
@@ -15826,7 +15810,7 @@
       <c r="AY300" s="1"/>
       <c r="AZ300" s="1"/>
     </row>
-    <row r="301" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="301" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
@@ -15876,7 +15860,7 @@
       <c r="AY301" s="1"/>
       <c r="AZ301" s="1"/>
     </row>
-    <row r="302" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="302" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
@@ -15926,7 +15910,7 @@
       <c r="AY302" s="1"/>
       <c r="AZ302" s="1"/>
     </row>
-    <row r="303" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="303" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
@@ -15976,7 +15960,7 @@
       <c r="AY303" s="1"/>
       <c r="AZ303" s="1"/>
     </row>
-    <row r="304" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="304" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
@@ -16026,7 +16010,7 @@
       <c r="AY304" s="1"/>
       <c r="AZ304" s="1"/>
     </row>
-    <row r="305" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="305" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
@@ -16076,7 +16060,7 @@
       <c r="AY305" s="1"/>
       <c r="AZ305" s="1"/>
     </row>
-    <row r="306" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="306" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
@@ -16126,7 +16110,7 @@
       <c r="AY306" s="1"/>
       <c r="AZ306" s="1"/>
     </row>
-    <row r="307" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="307" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
@@ -16176,7 +16160,7 @@
       <c r="AY307" s="1"/>
       <c r="AZ307" s="1"/>
     </row>
-    <row r="308" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
@@ -16226,7 +16210,7 @@
       <c r="AY308" s="1"/>
       <c r="AZ308" s="1"/>
     </row>
-    <row r="309" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="309" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
@@ -16276,7 +16260,7 @@
       <c r="AY309" s="1"/>
       <c r="AZ309" s="1"/>
     </row>
-    <row r="310" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="310" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
@@ -16326,7 +16310,7 @@
       <c r="AY310" s="1"/>
       <c r="AZ310" s="1"/>
     </row>
-    <row r="311" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="311" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
@@ -16376,7 +16360,7 @@
       <c r="AY311" s="1"/>
       <c r="AZ311" s="1"/>
     </row>
-    <row r="312" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="312" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
@@ -16426,7 +16410,7 @@
       <c r="AY312" s="1"/>
       <c r="AZ312" s="1"/>
     </row>
-    <row r="313" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="313" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
@@ -16476,7 +16460,7 @@
       <c r="AY313" s="1"/>
       <c r="AZ313" s="1"/>
     </row>
-    <row r="314" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="314" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
@@ -16526,7 +16510,7 @@
       <c r="AY314" s="1"/>
       <c r="AZ314" s="1"/>
     </row>
-    <row r="315" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="315" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
@@ -16576,7 +16560,7 @@
       <c r="AY315" s="1"/>
       <c r="AZ315" s="1"/>
     </row>
-    <row r="316" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="316" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
@@ -16626,7 +16610,7 @@
       <c r="AY316" s="1"/>
       <c r="AZ316" s="1"/>
     </row>
-    <row r="317" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="317" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
@@ -16676,7 +16660,7 @@
       <c r="AY317" s="1"/>
       <c r="AZ317" s="1"/>
     </row>
-    <row r="318" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="318" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
@@ -16726,7 +16710,7 @@
       <c r="AY318" s="1"/>
       <c r="AZ318" s="1"/>
     </row>
-    <row r="319" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="319" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
@@ -16776,7 +16760,7 @@
       <c r="AY319" s="1"/>
       <c r="AZ319" s="1"/>
     </row>
-    <row r="320" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="320" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
@@ -16826,7 +16810,7 @@
       <c r="AY320" s="1"/>
       <c r="AZ320" s="1"/>
     </row>
-    <row r="321" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="321" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
@@ -16876,7 +16860,7 @@
       <c r="AY321" s="1"/>
       <c r="AZ321" s="1"/>
     </row>
-    <row r="322" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="322" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
@@ -16926,7 +16910,7 @@
       <c r="AY322" s="1"/>
       <c r="AZ322" s="1"/>
     </row>
-    <row r="323" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="323" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
@@ -16976,7 +16960,7 @@
       <c r="AY323" s="1"/>
       <c r="AZ323" s="1"/>
     </row>
-    <row r="324" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="324" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
@@ -17026,7 +17010,7 @@
       <c r="AY324" s="1"/>
       <c r="AZ324" s="1"/>
     </row>
-    <row r="325" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="325" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
@@ -17076,7 +17060,7 @@
       <c r="AY325" s="1"/>
       <c r="AZ325" s="1"/>
     </row>
-    <row r="326" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="326" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
@@ -17126,7 +17110,7 @@
       <c r="AY326" s="1"/>
       <c r="AZ326" s="1"/>
     </row>
-    <row r="327" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="327" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
@@ -17176,7 +17160,7 @@
       <c r="AY327" s="1"/>
       <c r="AZ327" s="1"/>
     </row>
-    <row r="328" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="328" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
@@ -17226,7 +17210,7 @@
       <c r="AY328" s="1"/>
       <c r="AZ328" s="1"/>
     </row>
-    <row r="329" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="329" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
@@ -17276,7 +17260,7 @@
       <c r="AY329" s="1"/>
       <c r="AZ329" s="1"/>
     </row>
-    <row r="330" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="330" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
@@ -17326,7 +17310,7 @@
       <c r="AY330" s="1"/>
       <c r="AZ330" s="1"/>
     </row>
-    <row r="331" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="331" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
@@ -17376,7 +17360,7 @@
       <c r="AY331" s="1"/>
       <c r="AZ331" s="1"/>
     </row>
-    <row r="332" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="332" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
@@ -17426,7 +17410,7 @@
       <c r="AY332" s="1"/>
       <c r="AZ332" s="1"/>
     </row>
-    <row r="333" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="333" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
@@ -17476,7 +17460,7 @@
       <c r="AY333" s="1"/>
       <c r="AZ333" s="1"/>
     </row>
-    <row r="334" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="334" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
@@ -17526,7 +17510,7 @@
       <c r="AY334" s="1"/>
       <c r="AZ334" s="1"/>
     </row>
-    <row r="335" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="335" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
@@ -17576,7 +17560,7 @@
       <c r="AY335" s="1"/>
       <c r="AZ335" s="1"/>
     </row>
-    <row r="336" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="336" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
@@ -17626,7 +17610,7 @@
       <c r="AY336" s="1"/>
       <c r="AZ336" s="1"/>
     </row>
-    <row r="337" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="337" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
@@ -17676,7 +17660,7 @@
       <c r="AY337" s="1"/>
       <c r="AZ337" s="1"/>
     </row>
-    <row r="338" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="338" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
@@ -17726,7 +17710,7 @@
       <c r="AY338" s="1"/>
       <c r="AZ338" s="1"/>
     </row>
-    <row r="339" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="339" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
@@ -17776,7 +17760,7 @@
       <c r="AY339" s="1"/>
       <c r="AZ339" s="1"/>
     </row>
-    <row r="340" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="340" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
@@ -17826,7 +17810,7 @@
       <c r="AY340" s="1"/>
       <c r="AZ340" s="1"/>
     </row>
-    <row r="341" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="341" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
@@ -17876,7 +17860,7 @@
       <c r="AY341" s="1"/>
       <c r="AZ341" s="1"/>
     </row>
-    <row r="342" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="342" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
@@ -17926,7 +17910,7 @@
       <c r="AY342" s="1"/>
       <c r="AZ342" s="1"/>
     </row>
-    <row r="343" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="343" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
@@ -17976,7 +17960,7 @@
       <c r="AY343" s="1"/>
       <c r="AZ343" s="1"/>
     </row>
-    <row r="344" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="344" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
@@ -18026,7 +18010,7 @@
       <c r="AY344" s="1"/>
       <c r="AZ344" s="1"/>
     </row>
-    <row r="345" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="345" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
@@ -18076,7 +18060,7 @@
       <c r="AY345" s="1"/>
       <c r="AZ345" s="1"/>
     </row>
-    <row r="346" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="346" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
@@ -18126,7 +18110,7 @@
       <c r="AY346" s="1"/>
       <c r="AZ346" s="1"/>
     </row>
-    <row r="347" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="347" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
@@ -18176,7 +18160,7 @@
       <c r="AY347" s="1"/>
       <c r="AZ347" s="1"/>
     </row>
-    <row r="348" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="348" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
@@ -18226,7 +18210,7 @@
       <c r="AY348" s="1"/>
       <c r="AZ348" s="1"/>
     </row>
-    <row r="349" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="349" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
@@ -18276,7 +18260,7 @@
       <c r="AY349" s="1"/>
       <c r="AZ349" s="1"/>
     </row>
-    <row r="350" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="350" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
@@ -18326,7 +18310,7 @@
       <c r="AY350" s="1"/>
       <c r="AZ350" s="1"/>
     </row>
-    <row r="351" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="351" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
@@ -18376,7 +18360,7 @@
       <c r="AY351" s="1"/>
       <c r="AZ351" s="1"/>
     </row>
-    <row r="352" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="352" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
@@ -18426,7 +18410,7 @@
       <c r="AY352" s="1"/>
       <c r="AZ352" s="1"/>
     </row>
-    <row r="353" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="353" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
@@ -18476,7 +18460,7 @@
       <c r="AY353" s="1"/>
       <c r="AZ353" s="1"/>
     </row>
-    <row r="354" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="354" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
@@ -18526,7 +18510,7 @@
       <c r="AY354" s="1"/>
       <c r="AZ354" s="1"/>
     </row>
-    <row r="355" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="355" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
@@ -18576,7 +18560,7 @@
       <c r="AY355" s="1"/>
       <c r="AZ355" s="1"/>
     </row>
-    <row r="356" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="356" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
@@ -18626,7 +18610,7 @@
       <c r="AY356" s="1"/>
       <c r="AZ356" s="1"/>
     </row>
-    <row r="357" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="357" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
@@ -18676,7 +18660,7 @@
       <c r="AY357" s="1"/>
       <c r="AZ357" s="1"/>
     </row>
-    <row r="358" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="358" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
@@ -18726,7 +18710,7 @@
       <c r="AY358" s="1"/>
       <c r="AZ358" s="1"/>
     </row>
-    <row r="359" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="359" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
@@ -18776,7 +18760,7 @@
       <c r="AY359" s="1"/>
       <c r="AZ359" s="1"/>
     </row>
-    <row r="360" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="360" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
@@ -18826,7 +18810,7 @@
       <c r="AY360" s="1"/>
       <c r="AZ360" s="1"/>
     </row>
-    <row r="361" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="361" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
@@ -18876,7 +18860,7 @@
       <c r="AY361" s="1"/>
       <c r="AZ361" s="1"/>
     </row>
-    <row r="362" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="362" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
@@ -18926,7 +18910,7 @@
       <c r="AY362" s="1"/>
       <c r="AZ362" s="1"/>
     </row>
-    <row r="363" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="363" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
@@ -18976,7 +18960,7 @@
       <c r="AY363" s="1"/>
       <c r="AZ363" s="1"/>
     </row>
-    <row r="364" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="364" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
@@ -19026,7 +19010,7 @@
       <c r="AY364" s="1"/>
       <c r="AZ364" s="1"/>
     </row>
-    <row r="365" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="365" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
@@ -19076,7 +19060,7 @@
       <c r="AY365" s="1"/>
       <c r="AZ365" s="1"/>
     </row>
-    <row r="366" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="366" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
@@ -19126,7 +19110,7 @@
       <c r="AY366" s="1"/>
       <c r="AZ366" s="1"/>
     </row>
-    <row r="367" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="367" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
@@ -19176,7 +19160,7 @@
       <c r="AY367" s="1"/>
       <c r="AZ367" s="1"/>
     </row>
-    <row r="368" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="368" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
@@ -19226,7 +19210,7 @@
       <c r="AY368" s="1"/>
       <c r="AZ368" s="1"/>
     </row>
-    <row r="369" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="369" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
@@ -19276,7 +19260,7 @@
       <c r="AY369" s="1"/>
       <c r="AZ369" s="1"/>
     </row>
-    <row r="370" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="370" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
@@ -19326,7 +19310,7 @@
       <c r="AY370" s="1"/>
       <c r="AZ370" s="1"/>
     </row>
-    <row r="371" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="371" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
@@ -19376,7 +19360,7 @@
       <c r="AY371" s="1"/>
       <c r="AZ371" s="1"/>
     </row>
-    <row r="372" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="372" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
@@ -19426,7 +19410,7 @@
       <c r="AY372" s="1"/>
       <c r="AZ372" s="1"/>
     </row>
-    <row r="373" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="373" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
@@ -19476,7 +19460,7 @@
       <c r="AY373" s="1"/>
       <c r="AZ373" s="1"/>
     </row>
-    <row r="374" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="374" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
@@ -19526,7 +19510,7 @@
       <c r="AY374" s="1"/>
       <c r="AZ374" s="1"/>
     </row>
-    <row r="375" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="375" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
@@ -19576,7 +19560,7 @@
       <c r="AY375" s="1"/>
       <c r="AZ375" s="1"/>
     </row>
-    <row r="376" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="376" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
@@ -19626,7 +19610,7 @@
       <c r="AY376" s="1"/>
       <c r="AZ376" s="1"/>
     </row>
-    <row r="377" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="377" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
@@ -19676,7 +19660,7 @@
       <c r="AY377" s="1"/>
       <c r="AZ377" s="1"/>
     </row>
-    <row r="378" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="378" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
@@ -19726,7 +19710,7 @@
       <c r="AY378" s="1"/>
       <c r="AZ378" s="1"/>
     </row>
-    <row r="379" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="379" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
@@ -19776,7 +19760,7 @@
       <c r="AY379" s="1"/>
       <c r="AZ379" s="1"/>
     </row>
-    <row r="380" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="380" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
@@ -19826,7 +19810,7 @@
       <c r="AY380" s="1"/>
       <c r="AZ380" s="1"/>
     </row>
-    <row r="381" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="381" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
@@ -19876,7 +19860,7 @@
       <c r="AY381" s="1"/>
       <c r="AZ381" s="1"/>
     </row>
-    <row r="382" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="382" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
@@ -19926,7 +19910,7 @@
       <c r="AY382" s="1"/>
       <c r="AZ382" s="1"/>
     </row>
-    <row r="383" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="383" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
@@ -19976,7 +19960,7 @@
       <c r="AY383" s="1"/>
       <c r="AZ383" s="1"/>
     </row>
-    <row r="384" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="384" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
@@ -20026,7 +20010,7 @@
       <c r="AY384" s="1"/>
       <c r="AZ384" s="1"/>
     </row>
-    <row r="385" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="385" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
@@ -20076,7 +20060,7 @@
       <c r="AY385" s="1"/>
       <c r="AZ385" s="1"/>
     </row>
-    <row r="386" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="386" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
@@ -20126,7 +20110,7 @@
       <c r="AY386" s="1"/>
       <c r="AZ386" s="1"/>
     </row>
-    <row r="387" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="387" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
@@ -20176,7 +20160,7 @@
       <c r="AY387" s="1"/>
       <c r="AZ387" s="1"/>
     </row>
-    <row r="388" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="388" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
@@ -20226,7 +20210,7 @@
       <c r="AY388" s="1"/>
       <c r="AZ388" s="1"/>
     </row>
-    <row r="389" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="389" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
@@ -20276,7 +20260,7 @@
       <c r="AY389" s="1"/>
       <c r="AZ389" s="1"/>
     </row>
-    <row r="390" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="390" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
@@ -20326,7 +20310,7 @@
       <c r="AY390" s="1"/>
       <c r="AZ390" s="1"/>
     </row>
-    <row r="391" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="391" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
@@ -20376,7 +20360,7 @@
       <c r="AY391" s="1"/>
       <c r="AZ391" s="1"/>
     </row>
-    <row r="392" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="392" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
@@ -20426,7 +20410,7 @@
       <c r="AY392" s="1"/>
       <c r="AZ392" s="1"/>
     </row>
-    <row r="393" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="393" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
@@ -20476,7 +20460,7 @@
       <c r="AY393" s="1"/>
       <c r="AZ393" s="1"/>
     </row>
-    <row r="394" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="394" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
@@ -20526,7 +20510,7 @@
       <c r="AY394" s="1"/>
       <c r="AZ394" s="1"/>
     </row>
-    <row r="395" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="395" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
@@ -20576,7 +20560,7 @@
       <c r="AY395" s="1"/>
       <c r="AZ395" s="1"/>
     </row>
-    <row r="396" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="396" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
@@ -20626,7 +20610,7 @@
       <c r="AY396" s="1"/>
       <c r="AZ396" s="1"/>
     </row>
-    <row r="397" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="397" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
@@ -20676,7 +20660,7 @@
       <c r="AY397" s="1"/>
       <c r="AZ397" s="1"/>
     </row>
-    <row r="398" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="398" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
@@ -20726,7 +20710,7 @@
       <c r="AY398" s="1"/>
       <c r="AZ398" s="1"/>
     </row>
-    <row r="399" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="399" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
@@ -20776,7 +20760,7 @@
       <c r="AY399" s="1"/>
       <c r="AZ399" s="1"/>
     </row>
-    <row r="400" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="400" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
@@ -20826,7 +20810,7 @@
       <c r="AY400" s="1"/>
       <c r="AZ400" s="1"/>
     </row>
-    <row r="401" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="401" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
@@ -20876,7 +20860,7 @@
       <c r="AY401" s="1"/>
       <c r="AZ401" s="1"/>
     </row>
-    <row r="402" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="402" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
@@ -20926,7 +20910,7 @@
       <c r="AY402" s="1"/>
       <c r="AZ402" s="1"/>
     </row>
-    <row r="403" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="403" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
@@ -20976,7 +20960,7 @@
       <c r="AY403" s="1"/>
       <c r="AZ403" s="1"/>
     </row>
-    <row r="404" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="404" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
@@ -21026,7 +21010,7 @@
       <c r="AY404" s="1"/>
       <c r="AZ404" s="1"/>
     </row>
-    <row r="405" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="405" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
@@ -21076,7 +21060,7 @@
       <c r="AY405" s="1"/>
       <c r="AZ405" s="1"/>
     </row>
-    <row r="406" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="406" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
@@ -21126,7 +21110,7 @@
       <c r="AY406" s="1"/>
       <c r="AZ406" s="1"/>
     </row>
-    <row r="407" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="407" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
@@ -21176,7 +21160,7 @@
       <c r="AY407" s="1"/>
       <c r="AZ407" s="1"/>
     </row>
-    <row r="408" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="408" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
@@ -21226,7 +21210,7 @@
       <c r="AY408" s="1"/>
       <c r="AZ408" s="1"/>
     </row>
-    <row r="409" spans="4:52" x14ac:dyDescent="0.3">
+    <row r="409" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
@@ -21285,7 +21269,7 @@
     <mergeCell ref="E3:G3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$J$6:$J$9</formula1>
     </dataValidation>
   </dataValidations>
@@ -21296,12 +21280,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21522,15 +21503,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3ADE4A5-5187-46C5-8CDB-A4ADE256890D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD055CC2-8F68-4C69-9E56-54BEA8C803C6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="675b2d5a-2a5b-4198-b316-84224b1699b9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="9926c504-9366-4d27-ba67-e7df4b72c3ca"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21555,18 +21548,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD055CC2-8F68-4C69-9E56-54BEA8C803C6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3ADE4A5-5187-46C5-8CDB-A4ADE256890D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="675b2d5a-2a5b-4198-b316-84224b1699b9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="9926c504-9366-4d27-ba67-e7df4b72c3ca"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>